--- a/results/results_v3.2.xlsx
+++ b/results/results_v3.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AEE2B-5F13-468A-A10D-31F82136D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B543764-5C39-40BC-A696-04F2642DBC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="electricity" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="208">
   <si>
     <t>Algorithm</t>
   </si>
@@ -649,6 +648,12 @@
   </si>
   <si>
     <t>yes, more epochs might help</t>
+  </si>
+  <si>
+    <t>no true convergence</t>
+  </si>
+  <si>
+    <t>not really</t>
   </si>
 </sst>
 </file>
@@ -1157,9 +1162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1F683-F06B-4E20-80D1-BE6D024EC21F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3560,17 +3565,18 @@
   <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
     <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.90625" style="1" customWidth="1"/>
@@ -7357,9 +7363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62:O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11594,11 +11600,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J83" sqref="J83:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12879,12 +12885,24 @@
       <c r="I36" s="51">
         <v>43</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="51"/>
+      <c r="J36" s="52">
+        <v>1.03131091</v>
+      </c>
+      <c r="K36" s="53">
+        <v>0.13666711000000001</v>
+      </c>
+      <c r="L36" s="53">
+        <v>17.004873679999999</v>
+      </c>
+      <c r="M36" s="52">
+        <v>0.12285705</v>
+      </c>
+      <c r="N36" s="52">
+        <v>8.4793569999999999E-2</v>
+      </c>
+      <c r="O36" s="51" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="37" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="50" t="s">
@@ -13435,12 +13453,24 @@
       <c r="I53" s="51">
         <v>44</v>
       </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="51"/>
+      <c r="J53" s="52">
+        <v>0.97483445999999996</v>
+      </c>
+      <c r="K53" s="53">
+        <v>0.13445325999999999</v>
+      </c>
+      <c r="L53" s="53">
+        <v>16.894027959999999</v>
+      </c>
+      <c r="M53" s="52">
+        <v>0.11874202</v>
+      </c>
+      <c r="N53" s="52">
+        <v>7.3057800000000006E-2</v>
+      </c>
+      <c r="O53" s="51" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="54" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C54" s="51"/>
@@ -13503,31 +13533,13 @@
       </c>
     </row>
     <row r="56" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="50">
-        <v>48000</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="51">
-        <v>973443</v>
-      </c>
-      <c r="E56" s="51">
-        <v>100</v>
-      </c>
-      <c r="F56" s="51">
-        <v>1000</v>
-      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="51">
-        <v>42</v>
-      </c>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
       <c r="J56" s="52"/>
       <c r="K56" s="53"/>
       <c r="L56" s="53"/>
@@ -13551,56 +13563,46 @@
       <c r="O57" s="51"/>
     </row>
     <row r="58" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="50" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="51"/>
+    </row>
+    <row r="59" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="50">
+      <c r="B59" s="50">
         <v>48000</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C59" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="51">
-        <v>13463</v>
-      </c>
-      <c r="E58" s="51">
-        <v>100</v>
-      </c>
-      <c r="F58" s="51">
+      <c r="D59" s="51">
+        <v>973443</v>
+      </c>
+      <c r="E59" s="51">
+        <v>100</v>
+      </c>
+      <c r="F59" s="51">
         <v>1000</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58" s="51">
+      <c r="G59" s="51"/>
+      <c r="H59" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="51">
         <v>42</v>
       </c>
-      <c r="J58" s="52">
-        <v>0.98942419999999998</v>
-      </c>
-      <c r="K58" s="53">
-        <v>0.13057257999999999</v>
-      </c>
-      <c r="L58" s="53">
-        <v>9.7986683499999998</v>
-      </c>
-      <c r="M58" s="52">
-        <v>0.11604762</v>
-      </c>
-      <c r="N58" s="52">
-        <v>6.7863530000000005E-2</v>
-      </c>
-      <c r="O58" s="51"/>
-    </row>
-    <row r="59" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
       <c r="J59" s="52"/>
       <c r="K59" s="53"/>
       <c r="L59" s="53"/>
@@ -13623,91 +13625,63 @@
       <c r="N60" s="52"/>
       <c r="O60" s="51"/>
     </row>
-    <row r="61" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="50">
         <v>48000</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="35">
-        <v>973443</v>
-      </c>
-      <c r="E61" s="35">
-        <v>25</v>
-      </c>
-      <c r="F61" s="35">
-        <v>50</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="35">
+      <c r="C61" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="51">
+        <v>13463</v>
+      </c>
+      <c r="E61" s="51">
+        <v>100</v>
+      </c>
+      <c r="F61" s="51">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I61" s="51">
         <v>42</v>
       </c>
-      <c r="J61" s="36">
-        <v>1.04156665</v>
-      </c>
-      <c r="K61" s="37">
-        <v>0.14452783999999999</v>
-      </c>
-      <c r="L61" s="37">
-        <v>24.764567599999999</v>
-      </c>
-      <c r="M61" s="36">
-        <v>0.12876456</v>
-      </c>
-      <c r="N61" s="36">
-        <v>0.10455152</v>
-      </c>
-      <c r="O61" s="35"/>
-    </row>
-    <row r="62" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="34">
-        <v>48000</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="35">
-        <v>973443</v>
-      </c>
-      <c r="E62" s="35">
-        <v>25</v>
-      </c>
-      <c r="F62" s="35">
-        <v>50</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="35">
-        <v>43</v>
-      </c>
-      <c r="J62" s="36">
-        <v>1.0535437400000001</v>
-      </c>
-      <c r="K62" s="37">
-        <v>0.14488442000000001</v>
-      </c>
-      <c r="L62" s="37">
-        <v>24.913253959999999</v>
-      </c>
-      <c r="M62" s="36">
-        <v>0.12907809000000001</v>
-      </c>
-      <c r="N62" s="36">
-        <v>0.1057289</v>
-      </c>
-      <c r="O62" s="35"/>
+      <c r="J61" s="52">
+        <v>0.98942419999999998</v>
+      </c>
+      <c r="K61" s="53">
+        <v>0.13057257999999999</v>
+      </c>
+      <c r="L61" s="53">
+        <v>9.7986683499999998</v>
+      </c>
+      <c r="M61" s="52">
+        <v>0.11604762</v>
+      </c>
+      <c r="N61" s="52">
+        <v>6.7863530000000005E-2</v>
+      </c>
+      <c r="O61" s="51"/>
+    </row>
+    <row r="62" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="51"/>
     </row>
     <row r="63" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
@@ -13733,38 +13707,66 @@
         <v>41</v>
       </c>
       <c r="I63" s="35">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J63" s="36">
-        <v>1.05478352</v>
+        <v>1.04156665</v>
       </c>
       <c r="K63" s="37">
-        <v>0.14471998999999999</v>
+        <v>0.14452783999999999</v>
       </c>
       <c r="L63" s="37">
-        <v>24.905563879999999</v>
+        <v>24.764567599999999</v>
       </c>
       <c r="M63" s="36">
-        <v>0.12894147</v>
+        <v>0.12876456</v>
       </c>
       <c r="N63" s="36">
-        <v>0.10611864999999999</v>
+        <v>0.10455152</v>
       </c>
       <c r="O63" s="35"/>
     </row>
     <row r="64" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
+      <c r="A64" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E64" s="35">
+        <v>25</v>
+      </c>
+      <c r="F64" s="35">
+        <v>50</v>
+      </c>
       <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
+      <c r="H64" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="35">
+        <v>43</v>
+      </c>
+      <c r="J64" s="36">
+        <v>1.0535437400000001</v>
+      </c>
+      <c r="K64" s="37">
+        <v>0.14488442000000001</v>
+      </c>
+      <c r="L64" s="37">
+        <v>24.913253959999999</v>
+      </c>
+      <c r="M64" s="36">
+        <v>0.12907809000000001</v>
+      </c>
+      <c r="N64" s="36">
+        <v>0.1057289</v>
+      </c>
       <c r="O64" s="35"/>
     </row>
     <row r="65" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -13781,7 +13783,7 @@
         <v>973443</v>
       </c>
       <c r="E65" s="35">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F65" s="35">
         <v>50</v>
@@ -13791,68 +13793,38 @@
         <v>41</v>
       </c>
       <c r="I65" s="35">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J65" s="36">
-        <v>1.04156413</v>
+        <v>1.05478352</v>
       </c>
       <c r="K65" s="37">
-        <v>0.14452493999999999</v>
+        <v>0.14471998999999999</v>
       </c>
       <c r="L65" s="37">
-        <v>24.762489720000001</v>
+        <v>24.905563879999999</v>
       </c>
       <c r="M65" s="36">
-        <v>0.12876255</v>
+        <v>0.12894147</v>
       </c>
       <c r="N65" s="36">
-        <v>0.104545676</v>
-      </c>
-      <c r="O65" s="35" t="s">
-        <v>197</v>
-      </c>
+        <v>0.10611864999999999</v>
+      </c>
+      <c r="O65" s="35"/>
     </row>
     <row r="66" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="34">
-        <v>48000</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="35">
-        <v>973443</v>
-      </c>
-      <c r="E66" s="35">
-        <v>50</v>
-      </c>
-      <c r="F66" s="35">
-        <v>50</v>
-      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="35">
-        <v>43</v>
-      </c>
-      <c r="J66" s="36">
-        <v>1.0536072999999999</v>
-      </c>
-      <c r="K66" s="37">
-        <v>0.14488739</v>
-      </c>
-      <c r="L66" s="37">
-        <v>24.914646189999999</v>
-      </c>
-      <c r="M66" s="36">
-        <v>0.12907729000000001</v>
-      </c>
-      <c r="N66" s="36">
-        <v>0.10573324000000001</v>
-      </c>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
       <c r="O66" s="35"/>
     </row>
     <row r="67" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -13879,35 +13851,68 @@
         <v>41</v>
       </c>
       <c r="I67" s="35">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J67" s="36">
-        <v>1.0546646399999999</v>
+        <v>1.04156413</v>
       </c>
       <c r="K67" s="37">
-        <v>0.14471840999999999</v>
+        <v>0.14452493999999999</v>
       </c>
       <c r="L67" s="37">
-        <v>24.904696510000001</v>
+        <v>24.762489720000001</v>
       </c>
       <c r="M67" s="36">
-        <v>0.12894095999999999</v>
+        <v>0.12876255</v>
       </c>
       <c r="N67" s="36">
-        <v>0.10611795</v>
-      </c>
-      <c r="O67" s="35"/>
+        <v>0.104545676</v>
+      </c>
+      <c r="O67" s="35" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="68" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="F68" s="35"/>
+      <c r="A68" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E68" s="35">
+        <v>50</v>
+      </c>
+      <c r="F68" s="35">
+        <v>50</v>
+      </c>
       <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
+      <c r="H68" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="35">
+        <v>43</v>
+      </c>
+      <c r="J68" s="36">
+        <v>1.0536072999999999</v>
+      </c>
+      <c r="K68" s="37">
+        <v>0.14488739</v>
+      </c>
+      <c r="L68" s="37">
+        <v>24.914646189999999</v>
+      </c>
+      <c r="M68" s="36">
+        <v>0.12907729000000001</v>
+      </c>
+      <c r="N68" s="36">
+        <v>0.10573324000000001</v>
+      </c>
       <c r="O68" s="35"/>
     </row>
     <row r="69" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -13927,76 +13932,43 @@
         <v>50</v>
       </c>
       <c r="F69" s="35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G69" s="35"/>
       <c r="H69" s="35" t="s">
         <v>41</v>
       </c>
       <c r="I69" s="35">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J69" s="36">
-        <v>1.04165039</v>
+        <v>1.0546646399999999</v>
       </c>
       <c r="K69" s="37">
-        <v>0.1445273</v>
+        <v>0.14471840999999999</v>
       </c>
       <c r="L69" s="37">
-        <v>24.763710540000002</v>
+        <v>24.904696510000001</v>
       </c>
       <c r="M69" s="36">
-        <v>0.12876552999999999</v>
+        <v>0.12894095999999999</v>
       </c>
       <c r="N69" s="36">
-        <v>0.10454616</v>
+        <v>0.10611795</v>
       </c>
       <c r="O69" s="35"/>
     </row>
     <row r="70" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="34">
-        <v>48000</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="35">
-        <v>973443</v>
-      </c>
-      <c r="E70" s="35">
-        <v>50</v>
-      </c>
-      <c r="F70" s="35">
-        <v>100</v>
-      </c>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="F70" s="35"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="35">
-        <v>43</v>
-      </c>
-      <c r="J70" s="36">
-        <v>1.05356129</v>
-      </c>
-      <c r="K70" s="37">
-        <v>0.14488398</v>
-      </c>
-      <c r="L70" s="37">
-        <v>24.91417495</v>
-      </c>
-      <c r="M70" s="36">
-        <v>0.12907666000000001</v>
-      </c>
-      <c r="N70" s="36">
-        <v>0.10572911</v>
-      </c>
-      <c r="O70" s="35" t="s">
-        <v>199</v>
-      </c>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
     </row>
     <row r="71" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
@@ -14022,40 +13994,69 @@
         <v>41</v>
       </c>
       <c r="I71" s="35">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J71" s="36">
-        <v>1.0547572199999999</v>
+        <v>1.04165039</v>
       </c>
       <c r="K71" s="37">
-        <v>0.1447185</v>
+        <v>0.1445273</v>
       </c>
       <c r="L71" s="37">
-        <v>24.904147300000002</v>
+        <v>24.763710540000002</v>
       </c>
       <c r="M71" s="36">
-        <v>0.12893736</v>
+        <v>0.12876552999999999</v>
       </c>
       <c r="N71" s="36">
-        <v>0.10611428000000001</v>
-      </c>
-      <c r="O71" s="35" t="s">
-        <v>200</v>
-      </c>
+        <v>0.10454616</v>
+      </c>
+      <c r="O71" s="35"/>
     </row>
     <row r="72" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="F72" s="35"/>
+      <c r="A72" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E72" s="35">
+        <v>50</v>
+      </c>
+      <c r="F72" s="35">
+        <v>100</v>
+      </c>
       <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="35"/>
+      <c r="H72" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="35">
+        <v>43</v>
+      </c>
+      <c r="J72" s="36">
+        <v>1.05356129</v>
+      </c>
+      <c r="K72" s="37">
+        <v>0.14488398</v>
+      </c>
+      <c r="L72" s="37">
+        <v>24.91417495</v>
+      </c>
+      <c r="M72" s="36">
+        <v>0.12907666000000001</v>
+      </c>
+      <c r="N72" s="36">
+        <v>0.10572911</v>
+      </c>
+      <c r="O72" s="35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="73" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
@@ -14067,81 +14068,54 @@
       <c r="C73" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="35"/>
+      <c r="D73" s="35">
+        <v>973443</v>
+      </c>
       <c r="E73" s="35">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F73" s="35">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G73" s="35"/>
       <c r="H73" s="35" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I73" s="35">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J73" s="36">
-        <v>1.04832131</v>
+        <v>1.0547572199999999</v>
       </c>
       <c r="K73" s="37">
-        <v>0.14429992999999999</v>
+        <v>0.1447185</v>
       </c>
       <c r="L73" s="37">
-        <v>24.80394128</v>
+        <v>24.904147300000002</v>
       </c>
       <c r="M73" s="36">
-        <v>0.12860384</v>
+        <v>0.12893736</v>
       </c>
       <c r="N73" s="36">
-        <v>0.10551386</v>
+        <v>0.10611428000000001</v>
       </c>
       <c r="O73" s="35" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="34">
-        <v>48000</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="C74" s="35"/>
       <c r="D74" s="35"/>
-      <c r="E74" s="35">
-        <v>25</v>
-      </c>
-      <c r="F74" s="35">
-        <v>50</v>
-      </c>
+      <c r="F74" s="35"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="I74" s="35">
-        <v>43</v>
-      </c>
-      <c r="J74" s="36">
-        <v>1.05133692</v>
-      </c>
-      <c r="K74" s="37">
-        <v>0.14460904999999999</v>
-      </c>
-      <c r="L74" s="37">
-        <v>24.867826600000001</v>
-      </c>
-      <c r="M74" s="36">
-        <v>0.12885136</v>
-      </c>
-      <c r="N74" s="36">
-        <v>0.10575038</v>
-      </c>
-      <c r="O74" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="35"/>
     </row>
     <row r="75" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
@@ -14165,39 +14139,69 @@
         <v>198</v>
       </c>
       <c r="I75" s="35">
-        <v>44</v>
-      </c>
-      <c r="J75" s="36"/>
-      <c r="K75" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="J75" s="36">
+        <v>1.04832131</v>
+      </c>
+      <c r="K75" s="37">
+        <v>0.14429992999999999</v>
+      </c>
+      <c r="L75" s="37">
+        <v>24.80394128</v>
+      </c>
+      <c r="M75" s="36">
+        <v>0.12860384</v>
+      </c>
+      <c r="N75" s="36">
+        <v>0.10551386</v>
       </c>
       <c r="O75" s="35" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="35"/>
+      <c r="A76" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
+      <c r="E76" s="35">
+        <v>25</v>
+      </c>
+      <c r="F76" s="35">
+        <v>50</v>
+      </c>
       <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="35"/>
+      <c r="H76" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I76" s="35">
+        <v>43</v>
+      </c>
+      <c r="J76" s="36">
+        <v>1.05133692</v>
+      </c>
+      <c r="K76" s="37">
+        <v>0.14460904999999999</v>
+      </c>
+      <c r="L76" s="37">
+        <v>24.867826600000001</v>
+      </c>
+      <c r="M76" s="36">
+        <v>0.12885136</v>
+      </c>
+      <c r="N76" s="36">
+        <v>0.10575038</v>
+      </c>
+      <c r="O76" s="35" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="77" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
@@ -14209,67 +14213,45 @@
       <c r="C77" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="35">
-        <v>21510</v>
-      </c>
+      <c r="D77" s="35"/>
       <c r="E77" s="35">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F77" s="35">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G77" s="35"/>
       <c r="H77" s="35" t="s">
         <v>198</v>
       </c>
       <c r="I77" s="35">
-        <v>42</v>
-      </c>
-      <c r="J77" s="36">
-        <v>1.1712848</v>
-      </c>
-      <c r="K77" s="37">
-        <v>0.14520299</v>
-      </c>
-      <c r="L77" s="37">
-        <v>19.98612396</v>
-      </c>
-      <c r="M77" s="36">
-        <v>0.13050726000000001</v>
-      </c>
-      <c r="N77" s="36">
-        <v>9.6002649999999995E-2</v>
+        <v>44</v>
+      </c>
+      <c r="J77" s="36"/>
+      <c r="K77" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="O77" s="35" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="34">
-        <v>48000</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="35">
-        <v>21510</v>
-      </c>
-      <c r="E78" s="35">
-        <v>50</v>
-      </c>
-      <c r="F78" s="35">
-        <v>200</v>
-      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="I78" s="35">
-        <v>43</v>
-      </c>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="36"/>
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
@@ -14301,23 +14283,53 @@
         <v>198</v>
       </c>
       <c r="I79" s="35">
-        <v>44</v>
-      </c>
-      <c r="J79" s="36"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="J79" s="36">
+        <v>1.1712848</v>
+      </c>
+      <c r="K79" s="37">
+        <v>0.14520299</v>
+      </c>
+      <c r="L79" s="37">
+        <v>19.98612396</v>
+      </c>
+      <c r="M79" s="36">
+        <v>0.13050726000000001</v>
+      </c>
+      <c r="N79" s="36">
+        <v>9.6002649999999995E-2</v>
+      </c>
+      <c r="O79" s="35" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="80" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="A80" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="35">
+        <v>21510</v>
+      </c>
+      <c r="E80" s="35">
+        <v>50</v>
+      </c>
+      <c r="F80" s="35">
+        <v>200</v>
+      </c>
       <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
+      <c r="H80" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80" s="35">
+        <v>43</v>
+      </c>
       <c r="J80" s="36"/>
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
@@ -14342,60 +14354,30 @@
         <v>50</v>
       </c>
       <c r="F81" s="35">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G81" s="35"/>
       <c r="H81" s="35" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="I81" s="35">
-        <v>42</v>
-      </c>
-      <c r="J81" s="36">
-        <v>1.03742146</v>
-      </c>
-      <c r="K81" s="37">
-        <v>0.13700314</v>
-      </c>
-      <c r="L81" s="37">
-        <v>21.90872632</v>
-      </c>
-      <c r="M81" s="36">
-        <v>0.12313782</v>
-      </c>
-      <c r="N81" s="36">
-        <v>9.0842010000000001E-2</v>
-      </c>
-      <c r="O81" s="35" t="s">
-        <v>204</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J81" s="36"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="35"/>
     </row>
     <row r="82" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="34">
-        <v>48000</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="35">
-        <v>21510</v>
-      </c>
-      <c r="E82" s="35">
-        <v>50</v>
-      </c>
-      <c r="F82" s="35">
-        <v>1000</v>
-      </c>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
       <c r="G82" s="35"/>
-      <c r="H82" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I82" s="35">
-        <v>43</v>
-      </c>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="36"/>
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
@@ -14427,22 +14409,53 @@
         <v>41</v>
       </c>
       <c r="I83" s="35">
-        <v>44</v>
-      </c>
-      <c r="J83" s="36"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="J83" s="36">
+        <v>1.03742146</v>
+      </c>
+      <c r="K83" s="37">
+        <v>0.13700314</v>
+      </c>
+      <c r="L83" s="37">
+        <v>21.90872632</v>
+      </c>
+      <c r="M83" s="36">
+        <v>0.12313782</v>
+      </c>
+      <c r="N83" s="36">
+        <v>9.0842010000000001E-2</v>
+      </c>
+      <c r="O83" s="35" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="84" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="F84" s="35"/>
+      <c r="A84" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="35">
+        <v>21510</v>
+      </c>
+      <c r="E84" s="35">
+        <v>50</v>
+      </c>
+      <c r="F84" s="35">
+        <v>1000</v>
+      </c>
       <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
+      <c r="H84" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="35">
+        <v>43</v>
+      </c>
       <c r="J84" s="36"/>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
@@ -14450,128 +14463,175 @@
       <c r="N84" s="36"/>
       <c r="O84" s="35"/>
     </row>
-    <row r="85" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-    </row>
-    <row r="86" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
+    <row r="85" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B85" s="34">
         <v>48000</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C85" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="35">
+        <v>21510</v>
+      </c>
+      <c r="E85" s="35">
+        <v>50</v>
+      </c>
+      <c r="F85" s="35">
+        <v>1000</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="35">
+        <v>44</v>
+      </c>
+      <c r="J85" s="36"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="35"/>
+    </row>
+    <row r="86" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="35"/>
+    </row>
+    <row r="87" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="6">
+        <v>48000</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D88" s="7">
         <v>491056</v>
       </c>
-      <c r="E86" s="6">
-        <v>100</v>
-      </c>
-      <c r="F86" s="7">
-        <v>50</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="E88" s="6">
+        <v>100</v>
+      </c>
+      <c r="F88" s="7">
+        <v>50</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7">
+      <c r="H88" s="7"/>
+      <c r="I88" s="7">
         <v>42</v>
       </c>
-      <c r="J86" s="20">
+      <c r="J88" s="20">
         <v>119.488322681421</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K88" s="21">
         <v>4772.3886078023397</v>
       </c>
-      <c r="L86" s="20">
+      <c r="L88" s="20">
         <v>1.4252456851917701</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M88" s="21">
         <v>11.2135887871412</v>
       </c>
-      <c r="N86" s="20">
+      <c r="N88" s="20">
         <v>3.0093397413643199</v>
       </c>
-      <c r="O86" s="7"/>
-    </row>
-    <row r="87" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B89" s="6">
         <v>48000</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D89" s="7">
         <v>491056</v>
       </c>
-      <c r="E87" s="6">
-        <v>100</v>
-      </c>
-      <c r="F87" s="7">
-        <v>100</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7">
+      <c r="E89" s="6">
+        <v>100</v>
+      </c>
+      <c r="F89" s="7">
+        <v>100</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7">
         <v>42</v>
       </c>
-      <c r="J87" s="20">
+      <c r="J89" s="20">
         <v>106.22708353048699</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K89" s="21">
         <v>4241.8667773541902</v>
       </c>
-      <c r="L87" s="21">
+      <c r="L89" s="21">
         <v>1.47356738153907</v>
       </c>
-      <c r="M87" s="21">
+      <c r="M89" s="21">
         <v>9.4582211159614697</v>
       </c>
-      <c r="N87" s="21">
+      <c r="N89" s="21">
         <v>2.7352949638966999</v>
       </c>
-      <c r="O87" s="7" t="s">
+      <c r="O89" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="38" t="s">
+    <row r="90" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B90" s="38">
         <v>48000</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C90" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="39">
+      <c r="D90" s="39">
         <v>491056</v>
       </c>
-      <c r="E88" s="38">
-        <v>100</v>
-      </c>
-      <c r="F88" s="39">
+      <c r="E90" s="38">
+        <v>100</v>
+      </c>
+      <c r="F90" s="39">
         <v>150</v>
       </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="O88" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="O90" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/results/results_v3.2.xlsx
+++ b/results/results_v3.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B543764-5C39-40BC-A696-04F2642DBC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A6BD1-DA9F-40E5-AD3F-385A8EC2DF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="208">
   <si>
     <t>Algorithm</t>
   </si>
@@ -3562,11 +3562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5732,1420 +5732,1247 @@
       </c>
       <c r="P55" s="51"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
+    <row r="56" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
-      <c r="E56" s="50"/>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="34" t="s">
+      <c r="J56" s="51"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="51"/>
+    </row>
+    <row r="57" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B57" s="50">
         <v>4227</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E57" s="50">
+        <v>100</v>
+      </c>
+      <c r="F57" s="51">
+        <v>200</v>
+      </c>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="51">
+        <v>42</v>
+      </c>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52">
+        <v>5.0244799999999996</v>
+      </c>
+      <c r="L57" s="53">
+        <v>4.4324679999999998E-2</v>
+      </c>
+      <c r="M57" s="53">
+        <v>72.477901630000005</v>
+      </c>
+      <c r="N57" s="53">
+        <v>4.1711610000000003E-2</v>
+      </c>
+      <c r="O57" s="53">
+        <v>2.4484769999999999E-2</v>
+      </c>
+      <c r="P57" s="51"/>
+    </row>
+    <row r="58" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E58" s="50">
+        <v>100</v>
+      </c>
+      <c r="F58" s="51">
+        <v>200</v>
+      </c>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="51">
+        <v>43</v>
+      </c>
+      <c r="J58" s="51"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="51"/>
+    </row>
+    <row r="59" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E59" s="50">
+        <v>100</v>
+      </c>
+      <c r="F59" s="51">
+        <v>200</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="51">
+        <v>44</v>
+      </c>
+      <c r="J59" s="51"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="51"/>
+    </row>
+    <row r="60" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="51"/>
+    </row>
+    <row r="61" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E61" s="50">
+        <v>150</v>
+      </c>
+      <c r="F61" s="51">
+        <v>200</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="51">
+        <v>42</v>
+      </c>
+      <c r="J61" s="51"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="51"/>
+    </row>
+    <row r="62" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E62" s="50">
+        <v>150</v>
+      </c>
+      <c r="F62" s="51">
+        <v>200</v>
+      </c>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="51">
+        <v>43</v>
+      </c>
+      <c r="J62" s="51"/>
+      <c r="K62" s="52">
+        <v>3.4614393200000002</v>
+      </c>
+      <c r="L62" s="53">
+        <v>3.259256E-2</v>
+      </c>
+      <c r="M62" s="53">
+        <v>41.563839440000002</v>
+      </c>
+      <c r="N62" s="53">
+        <v>2.9349650000000001E-2</v>
+      </c>
+      <c r="O62" s="53">
+        <v>1.296957E-2</v>
+      </c>
+      <c r="P62" s="51"/>
+    </row>
+    <row r="63" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E63" s="50">
+        <v>150</v>
+      </c>
+      <c r="F63" s="51">
+        <v>200</v>
+      </c>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="51">
+        <v>44</v>
+      </c>
+      <c r="J63" s="51"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="51"/>
+    </row>
+    <row r="64" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="51"/>
+    </row>
+    <row r="65" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E65" s="50">
+        <v>200</v>
+      </c>
+      <c r="F65" s="51">
+        <v>200</v>
+      </c>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="51">
+        <v>42</v>
+      </c>
+      <c r="J65" s="51"/>
+      <c r="K65" s="52">
+        <v>3.5022123399999998</v>
+      </c>
+      <c r="L65" s="53">
+        <v>3.2943630000000002E-2</v>
+      </c>
+      <c r="M65" s="53">
+        <v>40.26351047</v>
+      </c>
+      <c r="N65" s="53">
+        <v>2.930601E-2</v>
+      </c>
+      <c r="O65" s="53">
+        <v>1.204468E-2</v>
+      </c>
+      <c r="P65" s="51"/>
+    </row>
+    <row r="66" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E66" s="50">
+        <v>200</v>
+      </c>
+      <c r="F66" s="51">
+        <v>200</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="51">
+        <v>43</v>
+      </c>
+      <c r="J66" s="51"/>
+      <c r="K66" s="52">
+        <v>3.5261492900000002</v>
+      </c>
+      <c r="L66" s="53">
+        <v>3.3826839999999997E-2</v>
+      </c>
+      <c r="M66" s="53">
+        <v>40.288902479999997</v>
+      </c>
+      <c r="N66" s="53">
+        <v>2.9960609999999999E-2</v>
+      </c>
+      <c r="O66" s="53">
+        <v>1.3092980000000001E-2</v>
+      </c>
+      <c r="P66" s="51"/>
+    </row>
+    <row r="67" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E67" s="50">
+        <v>200</v>
+      </c>
+      <c r="F67" s="51">
+        <v>200</v>
+      </c>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="51">
+        <v>44</v>
+      </c>
+      <c r="J67" s="51"/>
+      <c r="K67" s="52">
+        <v>3.3354709300000001</v>
+      </c>
+      <c r="L67" s="53">
+        <v>3.1823549999999999E-2</v>
+      </c>
+      <c r="M67" s="53">
+        <v>39.722636809999997</v>
+      </c>
+      <c r="N67" s="53">
+        <v>2.833656E-2</v>
+      </c>
+      <c r="O67" s="53">
+        <v>1.2941319999999999E-2</v>
+      </c>
+      <c r="P67" s="51"/>
+    </row>
+    <row r="68" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="51"/>
+    </row>
+    <row r="69" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E69" s="50">
+        <v>200</v>
+      </c>
+      <c r="F69" s="51">
+        <v>400</v>
+      </c>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="51">
+        <v>42</v>
+      </c>
+      <c r="J69" s="51"/>
+      <c r="K69" s="52">
+        <v>3.60528637</v>
+      </c>
+      <c r="L69" s="53">
+        <v>3.3331670000000001E-2</v>
+      </c>
+      <c r="M69" s="53">
+        <v>43.405239170000002</v>
+      </c>
+      <c r="N69" s="53">
+        <v>3.0717089999999999E-2</v>
+      </c>
+      <c r="O69" s="53">
+        <v>1.359701E-2</v>
+      </c>
+      <c r="P69" s="51"/>
+    </row>
+    <row r="70" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E70" s="50">
+        <v>200</v>
+      </c>
+      <c r="F70" s="51">
+        <v>400</v>
+      </c>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="51">
+        <v>43</v>
+      </c>
+      <c r="J70" s="51"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="51"/>
+    </row>
+    <row r="71" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="50">
+        <v>4227</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="51">
+        <v>97983</v>
+      </c>
+      <c r="E71" s="50">
+        <v>200</v>
+      </c>
+      <c r="F71" s="51">
+        <v>400</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="51">
+        <v>44</v>
+      </c>
+      <c r="J71" s="51"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="53"/>
+      <c r="P71" s="51"/>
+    </row>
+    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="34">
+        <v>4227</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="34">
+      <c r="D73" s="35"/>
+      <c r="E73" s="34">
         <v>25</v>
       </c>
-      <c r="F57" s="35">
-        <v>50</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35">
+      <c r="F73" s="35">
+        <v>50</v>
+      </c>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35">
         <v>42</v>
       </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="36">
+      <c r="J73" s="35"/>
+      <c r="K73" s="36">
         <v>3.7265029427634002</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L73" s="36">
         <v>3.43615135073616E-2</v>
       </c>
-      <c r="M57" s="37">
+      <c r="M73" s="37">
         <v>45.614512805679603</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N73" s="36">
         <v>3.1547316617100397E-2</v>
       </c>
-      <c r="O57" s="36">
+      <c r="O73" s="36">
         <v>1.5534556490396E-2</v>
       </c>
-      <c r="P57" s="35"/>
-    </row>
-    <row r="58" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="35"/>
-    </row>
-    <row r="59" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="34" t="s">
+      <c r="P73" s="35"/>
+    </row>
+    <row r="74" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="35"/>
+    </row>
+    <row r="75" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="34">
+      <c r="B75" s="34">
         <v>4227</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C75" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D75" s="35">
         <v>240609</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E75" s="34">
         <v>25</v>
       </c>
-      <c r="F59" s="35">
-        <v>50</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35" t="s">
+      <c r="F75" s="35">
+        <v>50</v>
+      </c>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I75" s="35">
         <v>42</v>
       </c>
-      <c r="J59" s="35">
+      <c r="J75" s="35">
         <v>-2.4544000000000001</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K75" s="36">
         <v>3.8999714860000001</v>
       </c>
-      <c r="L59" s="37">
+      <c r="L75" s="37">
         <v>3.6286051999999999E-2</v>
       </c>
-      <c r="M59" s="37">
+      <c r="M75" s="37">
         <v>53.729131000000002</v>
       </c>
-      <c r="N59" s="37">
+      <c r="N75" s="37">
         <v>3.3511891500000002E-2</v>
       </c>
-      <c r="O59" s="37">
+      <c r="O75" s="37">
         <v>1.95500176E-2</v>
       </c>
-      <c r="P59" s="35"/>
-    </row>
-    <row r="60" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="34" t="s">
+      <c r="P75" s="35"/>
+    </row>
+    <row r="76" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="34">
+      <c r="B76" s="34">
         <v>4227</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C76" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D76" s="35">
         <v>240609</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E76" s="34">
         <v>35</v>
       </c>
-      <c r="F60" s="35">
-        <v>50</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35" t="s">
+      <c r="F76" s="35">
+        <v>50</v>
+      </c>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="35">
+      <c r="I76" s="35">
         <v>42</v>
       </c>
-      <c r="J60" s="35">
+      <c r="J76" s="35">
         <v>-2.5695999999999999</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K76" s="36">
         <v>3.95988776</v>
       </c>
-      <c r="L60" s="37">
+      <c r="L76" s="37">
         <v>3.622678E-2</v>
       </c>
-      <c r="M60" s="37">
+      <c r="M76" s="37">
         <v>71.021427829999993</v>
       </c>
-      <c r="N60" s="37">
+      <c r="N76" s="37">
         <v>3.3904999999999998E-2</v>
       </c>
-      <c r="O60" s="37">
+      <c r="O76" s="37">
         <v>2.346546E-2</v>
       </c>
-      <c r="P60" s="35" t="s">
+      <c r="P76" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="34" t="s">
+    <row r="77" spans="1:16" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B77" s="34">
         <v>4227</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C77" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D77" s="35">
         <v>240609</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E77" s="34">
         <v>45</v>
       </c>
-      <c r="F61" s="35">
-        <v>50</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35" t="s">
+      <c r="F77" s="35">
+        <v>50</v>
+      </c>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I77" s="35">
         <v>42</v>
       </c>
-      <c r="J61" s="35">
+      <c r="J77" s="35">
         <v>-2.5301999999999998</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K77" s="36">
         <v>4.0064890200000001</v>
       </c>
-      <c r="L61" s="37">
+      <c r="L77" s="37">
         <v>3.672628E-2</v>
       </c>
-      <c r="M61" s="37">
+      <c r="M77" s="37">
         <v>64.123509100000007</v>
       </c>
-      <c r="N61" s="37">
+      <c r="N77" s="37">
         <v>3.4286230000000001E-2</v>
       </c>
-      <c r="O61" s="37">
+      <c r="O77" s="37">
         <v>2.1831239999999998E-2</v>
       </c>
-      <c r="P61" s="35" t="s">
+      <c r="P77" s="35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="35"/>
-    </row>
-    <row r="63" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
+    <row r="78" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="35"/>
+    </row>
+    <row r="79" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B79" s="34">
         <v>4227</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C79" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D79" s="35">
         <v>240609</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E79" s="34">
         <v>25</v>
       </c>
-      <c r="F63" s="35">
-        <v>50</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35" t="s">
+      <c r="F79" s="35">
+        <v>50</v>
+      </c>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I79" s="35">
         <v>43</v>
       </c>
-      <c r="J63" s="35">
+      <c r="J79" s="35">
         <v>-2.4998999999999998</v>
       </c>
-      <c r="K63" s="36">
+      <c r="K79" s="36">
         <v>3.9447550800000002</v>
       </c>
-      <c r="L63" s="37">
+      <c r="L79" s="37">
         <v>3.63133411E-2</v>
       </c>
-      <c r="M63" s="37">
+      <c r="M79" s="37">
         <v>68.021673059999998</v>
       </c>
-      <c r="N63" s="37">
+      <c r="N79" s="37">
         <v>3.3797269999999997E-2</v>
       </c>
-      <c r="O63" s="37">
+      <c r="O79" s="37">
         <v>2.2926808E-2</v>
       </c>
-      <c r="P63" s="35"/>
-    </row>
-    <row r="64" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="34" t="s">
+      <c r="P79" s="35"/>
+    </row>
+    <row r="80" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="34">
+      <c r="B80" s="34">
         <v>4227</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C80" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D80" s="35">
         <v>240609</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E80" s="34">
         <v>35</v>
       </c>
-      <c r="F64" s="35">
-        <v>50</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35" t="s">
+      <c r="F80" s="35">
+        <v>50</v>
+      </c>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I80" s="35">
         <v>43</v>
       </c>
-      <c r="J64" s="35">
+      <c r="J80" s="35">
         <v>-2.5939999999999999</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K80" s="36">
         <v>3.9665898899999998</v>
       </c>
-      <c r="L64" s="37">
+      <c r="L80" s="37">
         <v>3.6479259999999999E-2</v>
       </c>
-      <c r="M64" s="37">
+      <c r="M80" s="37">
         <v>62.976216059999999</v>
       </c>
-      <c r="N64" s="37">
+      <c r="N80" s="37">
         <v>3.406613E-2</v>
       </c>
-      <c r="O64" s="37">
+      <c r="O80" s="37">
         <v>2.1737840000000001E-2</v>
       </c>
-      <c r="P64" s="35"/>
-    </row>
-    <row r="65" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
+      <c r="P80" s="35"/>
+    </row>
+    <row r="81" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="34">
+      <c r="B81" s="34">
         <v>4227</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C81" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D81" s="35">
         <v>240609</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E81" s="34">
         <v>45</v>
       </c>
-      <c r="F65" s="35">
-        <v>50</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35" t="s">
+      <c r="F81" s="35">
+        <v>50</v>
+      </c>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I81" s="35">
         <v>43</v>
       </c>
-      <c r="J65" s="35">
+      <c r="J81" s="35">
         <v>-2.6162000000000001</v>
       </c>
-      <c r="K65" s="36">
+      <c r="K81" s="36">
         <v>3.9554667700000001</v>
       </c>
-      <c r="L65" s="37">
+      <c r="L81" s="37">
         <v>3.6263620000000003E-2</v>
       </c>
-      <c r="M65" s="37">
+      <c r="M81" s="37">
         <v>61.90661119</v>
       </c>
-      <c r="N65" s="37">
+      <c r="N81" s="37">
         <v>3.392659E-2</v>
       </c>
-      <c r="O65" s="37">
+      <c r="O81" s="37">
         <v>2.1242759999999999E-2</v>
       </c>
-      <c r="P65" s="35"/>
-    </row>
-    <row r="66" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="35"/>
-    </row>
-    <row r="67" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="34" t="s">
+      <c r="P81" s="35"/>
+    </row>
+    <row r="82" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="35"/>
+    </row>
+    <row r="83" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B83" s="34">
         <v>4227</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C83" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D83" s="35">
         <v>240609</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E83" s="34">
         <v>25</v>
       </c>
-      <c r="F67" s="35">
-        <v>50</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35" t="s">
+      <c r="F83" s="35">
+        <v>50</v>
+      </c>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="35">
+      <c r="I83" s="35">
         <v>44</v>
       </c>
-      <c r="J67" s="35">
+      <c r="J83" s="35">
         <v>-2.5280999999999998</v>
       </c>
-      <c r="K67" s="36">
+      <c r="K83" s="36">
         <v>3.9255741059</v>
       </c>
-      <c r="L67" s="37">
+      <c r="L83" s="37">
         <v>3.6533299999999998E-2</v>
       </c>
-      <c r="M67" s="37">
+      <c r="M83" s="37">
         <v>67.52120601</v>
       </c>
-      <c r="N67" s="37">
+      <c r="N83" s="37">
         <v>3.3730811200000002E-2</v>
       </c>
-      <c r="O67" s="37">
+      <c r="O83" s="37">
         <v>2.29461405E-2</v>
       </c>
-      <c r="P67" s="35"/>
-    </row>
-    <row r="68" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="34" t="s">
+      <c r="P83" s="35"/>
+    </row>
+    <row r="84" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B84" s="34">
         <v>4227</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C84" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D84" s="35">
         <v>240609</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E84" s="34">
         <v>35</v>
       </c>
-      <c r="F68" s="35">
-        <v>50</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35" t="s">
+      <c r="F84" s="35">
+        <v>50</v>
+      </c>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I84" s="35">
         <v>44</v>
       </c>
-      <c r="J68" s="35">
+      <c r="J84" s="35">
         <v>-2.5941999999999998</v>
       </c>
-      <c r="K68" s="36">
+      <c r="K84" s="36">
         <v>3.9309879699999999</v>
       </c>
-      <c r="L68" s="37">
+      <c r="L84" s="37">
         <v>3.6011609999999999E-2</v>
       </c>
-      <c r="M68" s="37">
+      <c r="M84" s="37">
         <v>61.473904869999998</v>
       </c>
-      <c r="N68" s="37">
+      <c r="N84" s="37">
         <v>3.3547899999999999E-2</v>
       </c>
-      <c r="O68" s="37">
+      <c r="O84" s="37">
         <v>2.0947520000000001E-2</v>
       </c>
-      <c r="P68" s="35"/>
-    </row>
-    <row r="69" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="34" t="s">
+      <c r="P84" s="35"/>
+    </row>
+    <row r="85" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="34">
+      <c r="B85" s="34">
         <v>4227</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C85" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D85" s="35">
         <v>240609</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E85" s="34">
         <v>45</v>
       </c>
-      <c r="F69" s="35">
-        <v>50</v>
-      </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35" t="s">
+      <c r="F85" s="35">
+        <v>50</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I85" s="35">
         <v>44</v>
       </c>
-      <c r="J69" s="35">
+      <c r="J85" s="35">
         <v>-2.6183999999999998</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K85" s="36">
         <v>3.9444067999999999</v>
       </c>
-      <c r="L69" s="37">
+      <c r="L85" s="37">
         <v>3.5990040000000001E-2</v>
       </c>
-      <c r="M69" s="37">
+      <c r="M85" s="37">
         <v>62.484584839999997</v>
       </c>
-      <c r="N69" s="37">
+      <c r="N85" s="37">
         <v>3.3690169999999998E-2</v>
       </c>
-      <c r="O69" s="37">
+      <c r="O85" s="37">
         <v>2.1179900000000002E-2</v>
       </c>
-      <c r="P69" s="35"/>
-    </row>
-    <row r="70" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="35"/>
-    </row>
-    <row r="71" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="35"/>
-    </row>
-    <row r="72" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="35"/>
-    </row>
-    <row r="73" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+      <c r="P85" s="35"/>
+    </row>
+    <row r="86" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="35"/>
+    </row>
+    <row r="87" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="35"/>
+    </row>
+    <row r="88" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="35"/>
+    </row>
+    <row r="89" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B89" s="6">
         <v>4227</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6">
-        <v>100</v>
-      </c>
-      <c r="F73" s="7">
-        <v>50</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7">
+      <c r="D89" s="7"/>
+      <c r="E89" s="6">
+        <v>100</v>
+      </c>
+      <c r="F89" s="7">
+        <v>50</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7">
         <v>42</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="20">
+      <c r="J89" s="7"/>
+      <c r="K89" s="20">
         <v>39.8111117321926</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L89" s="21">
         <v>0.295085285407581</v>
       </c>
-      <c r="M73" s="21">
+      <c r="M89" s="21">
         <v>1532.6129417120101</v>
       </c>
-      <c r="N73" s="21">
+      <c r="N89" s="21">
         <v>0.305712224216657</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O89" s="21">
         <v>0.28655775903000102</v>
       </c>
-      <c r="P73" s="7"/>
-    </row>
-    <row r="74" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B90" s="6">
         <v>4227</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="6">
-        <v>100</v>
-      </c>
-      <c r="F74" s="7">
-        <v>100</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7">
+      <c r="D90" s="7"/>
+      <c r="E90" s="6">
+        <v>100</v>
+      </c>
+      <c r="F90" s="7">
+        <v>100</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7">
         <v>42</v>
       </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="20">
+      <c r="J90" s="7"/>
+      <c r="K90" s="20">
         <v>24.7464336651162</v>
       </c>
-      <c r="L74" s="20">
+      <c r="L90" s="20">
         <v>0.19131980000000001</v>
       </c>
-      <c r="M74" s="21">
+      <c r="M90" s="21">
         <v>881.43752107056503</v>
       </c>
-      <c r="N74" s="20">
+      <c r="N90" s="20">
         <v>0.19190260000000001</v>
       </c>
-      <c r="O74" s="21"/>
-      <c r="P74" s="7"/>
-    </row>
-    <row r="75" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="22" t="s">
+      <c r="O90" s="21"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B91" s="22">
         <v>4227</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="22">
-        <v>100</v>
-      </c>
-      <c r="F75" s="23">
+      <c r="D91" s="23"/>
+      <c r="E91" s="22">
+        <v>100</v>
+      </c>
+      <c r="F91" s="23">
         <v>200</v>
       </c>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23">
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23">
         <v>42</v>
       </c>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23" t="s">
+      <c r="J91" s="23"/>
+      <c r="K91" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="23" t="s">
+      <c r="L91" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M75" s="22" t="s">
+      <c r="M91" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N75" s="23" t="s">
+      <c r="N91" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O75" s="23" t="s">
+      <c r="O91" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P75" s="23" t="s">
+      <c r="P91" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-    </row>
-    <row r="77" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+    <row r="92" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+    </row>
+    <row r="93" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B93" s="38">
         <v>4227</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C93" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="38">
-        <v>100</v>
-      </c>
-      <c r="F77" s="39">
-        <v>50</v>
-      </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39">
-        <v>42</v>
-      </c>
-      <c r="J77" s="39">
-        <v>5987.5990000000002</v>
-      </c>
-      <c r="K77" s="40">
-        <v>39.811111173</v>
-      </c>
-      <c r="L77" s="41">
-        <v>0.295085285407581</v>
-      </c>
-      <c r="M77" s="41">
-        <v>1532.6129417120101</v>
-      </c>
-      <c r="N77" s="41">
-        <v>0.305712224216657</v>
-      </c>
-      <c r="O77" s="41">
-        <v>0.28655775903000102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="38">
-        <v>4227</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="38">
-        <v>100</v>
-      </c>
-      <c r="F78" s="39">
-        <v>50</v>
-      </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39">
-        <v>43</v>
-      </c>
-      <c r="J78" s="39">
-        <v>6010.8316999999997</v>
-      </c>
-      <c r="K78" s="40">
-        <v>56.815319080000002</v>
-      </c>
-      <c r="L78" s="40">
-        <v>0.32490976999999999</v>
-      </c>
-      <c r="M78" s="41">
-        <v>2221.3669726200001</v>
-      </c>
-      <c r="N78" s="40">
-        <v>0.49594254999999998</v>
-      </c>
-      <c r="O78" s="40">
-        <v>0.15688109</v>
-      </c>
-      <c r="P78" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="59">
-        <v>100</v>
-      </c>
-      <c r="F79" s="39">
-        <v>50</v>
-      </c>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58">
-        <v>44</v>
-      </c>
-      <c r="J79" s="39">
-        <v>6580.2233999999999</v>
-      </c>
-      <c r="K79" s="40">
-        <v>63.977869939999998</v>
-      </c>
-      <c r="L79" s="40">
-        <v>0.36858385999999999</v>
-      </c>
-      <c r="M79" s="41">
-        <v>2501.5459309900002</v>
-      </c>
-      <c r="N79" s="40">
-        <v>0.53797130000000004</v>
-      </c>
-      <c r="O79" s="40">
-        <v>0.19995673799999999</v>
-      </c>
-      <c r="P79" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="59">
-        <v>150</v>
-      </c>
-      <c r="F80" s="39">
-        <v>50</v>
-      </c>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39">
-        <v>42</v>
-      </c>
-      <c r="J80" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="K80" s="40">
-        <v>33.2168268</v>
-      </c>
-      <c r="L80" s="40">
-        <v>0.29413540999999999</v>
-      </c>
-      <c r="M80" s="41">
-        <v>1245.2308292600001</v>
-      </c>
-      <c r="N80" s="40">
-        <v>0.25918701</v>
-      </c>
-      <c r="O80" s="40">
-        <v>0.41749721000000001</v>
-      </c>
-      <c r="P80" s="38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="59">
-        <v>150</v>
-      </c>
-      <c r="F81" s="39">
-        <v>50</v>
-      </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39">
-        <v>43</v>
-      </c>
-      <c r="J81" s="39">
-        <v>2886.2824999999998</v>
-      </c>
-      <c r="K81" s="41">
-        <v>29.89307805</v>
-      </c>
-      <c r="L81" s="41">
-        <v>0.23886130999999999</v>
-      </c>
-      <c r="M81" s="41">
-        <v>1137.6778158100001</v>
-      </c>
-      <c r="N81" s="41">
-        <v>0.23515806</v>
-      </c>
-      <c r="O81" s="41">
-        <v>0.27140829</v>
-      </c>
-      <c r="P81" s="38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="59">
-        <v>150</v>
-      </c>
-      <c r="F82" s="39">
-        <v>50</v>
-      </c>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="58">
-        <v>44</v>
-      </c>
-      <c r="J82" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="K82" s="41">
-        <v>51.053143290000001</v>
-      </c>
-      <c r="L82" s="41">
-        <v>0.30559857000000001</v>
-      </c>
-      <c r="M82" s="41">
-        <v>1959.59859923</v>
-      </c>
-      <c r="N82" s="41">
-        <v>0.40463465999999998</v>
-      </c>
-      <c r="O82" s="41">
-        <v>0.12930256000000001</v>
-      </c>
-      <c r="P82" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59">
-        <v>200</v>
-      </c>
-      <c r="F83" s="39">
-        <v>50</v>
-      </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39">
-        <v>42</v>
-      </c>
-      <c r="J83" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="K83" s="41">
-        <v>16.054106149999999</v>
-      </c>
-      <c r="L83" s="41">
-        <v>0.12951341</v>
-      </c>
-      <c r="M83" s="41">
-        <v>552.52366905999997</v>
-      </c>
-      <c r="N83" s="41">
-        <v>0.12731044</v>
-      </c>
-      <c r="O83" s="41">
-        <v>0.12750280999999999</v>
-      </c>
-      <c r="P83" s="38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="59">
-        <v>200</v>
-      </c>
-      <c r="F84" s="39">
-        <v>50</v>
-      </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39">
-        <v>43</v>
-      </c>
-      <c r="J84" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="K84" s="41">
-        <v>20.0279132</v>
-      </c>
-      <c r="L84" s="41">
-        <v>0.14278342999999999</v>
-      </c>
-      <c r="M84" s="41">
-        <v>746.12020351000001</v>
-      </c>
-      <c r="N84" s="41">
-        <v>0.17515089</v>
-      </c>
-      <c r="O84" s="41">
-        <v>7.6393329999999995E-2</v>
-      </c>
-      <c r="P84" s="38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C85" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="59">
-        <v>200</v>
-      </c>
-      <c r="F85" s="39">
-        <v>50</v>
-      </c>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="58">
-        <v>44</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="K85" s="41">
-        <v>16.552922259999999</v>
-      </c>
-      <c r="L85" s="41">
-        <v>0.12937567</v>
-      </c>
-      <c r="M85" s="41">
-        <v>574.24439425000003</v>
-      </c>
-      <c r="N85" s="41">
-        <v>0.13081623000000001</v>
-      </c>
-      <c r="O85" s="41">
-        <v>0.12079728000000001</v>
-      </c>
-      <c r="P85" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="59">
-        <v>250</v>
-      </c>
-      <c r="F86" s="39">
-        <v>50</v>
-      </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39">
-        <v>42</v>
-      </c>
-      <c r="J86" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="K86" s="41">
-        <v>11.092611120000001</v>
-      </c>
-      <c r="L86" s="41">
-        <v>9.0542910000000004E-2</v>
-      </c>
-      <c r="M86" s="41">
-        <v>363.60744175999997</v>
-      </c>
-      <c r="N86" s="41">
-        <v>9.0585730000000003E-2</v>
-      </c>
-      <c r="O86" s="41">
-        <v>5.056335E-2</v>
-      </c>
-      <c r="P86" s="38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="59">
-        <v>250</v>
-      </c>
-      <c r="F87" s="39">
-        <v>50</v>
-      </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39">
-        <v>43</v>
-      </c>
-      <c r="J87" s="39">
-        <v>2127.03206</v>
-      </c>
-      <c r="K87" s="41">
-        <v>11.095081589999999</v>
-      </c>
-      <c r="L87" s="41">
-        <v>9.0895249999999997E-2</v>
-      </c>
-      <c r="M87" s="41">
-        <v>389.24279887</v>
-      </c>
-      <c r="N87" s="41">
-        <v>9.2491989999999996E-2</v>
-      </c>
-      <c r="O87" s="41">
-        <v>0.12978544</v>
-      </c>
-      <c r="P87" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59">
-        <v>250</v>
-      </c>
-      <c r="F88" s="39">
-        <v>50</v>
-      </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="58">
-        <v>44</v>
-      </c>
-      <c r="J88" s="39">
-        <v>17.9893</v>
-      </c>
-      <c r="K88" s="41">
-        <v>8.5080010099999992</v>
-      </c>
-      <c r="L88" s="41">
-        <v>7.1243500000000001E-2</v>
-      </c>
-      <c r="M88" s="41">
-        <v>263.82989985</v>
-      </c>
-      <c r="N88" s="41">
-        <v>7.0827890000000004E-2</v>
-      </c>
-      <c r="O88" s="41">
-        <v>4.4766830000000001E-2</v>
-      </c>
-      <c r="P88" s="38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="59">
-        <v>300</v>
-      </c>
-      <c r="F89" s="39">
-        <v>50</v>
-      </c>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39">
-        <v>42</v>
-      </c>
-      <c r="J89" s="39">
-        <v>761.44443999999999</v>
-      </c>
-      <c r="K89" s="41">
-        <v>10.86580343</v>
-      </c>
-      <c r="L89" s="41">
-        <v>8.8302350000000002E-2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>351.00028567999999</v>
-      </c>
-      <c r="N89" s="41">
-        <v>9.2872479999999993E-2</v>
-      </c>
-      <c r="O89" s="41">
-        <v>3.4290349999999997E-2</v>
-      </c>
-      <c r="P89" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="58"/>
-      <c r="E90" s="59">
-        <v>300</v>
-      </c>
-      <c r="F90" s="39">
-        <v>50</v>
-      </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39">
-        <v>43</v>
-      </c>
-      <c r="J90" s="39">
-        <v>2032.7434000000001</v>
-      </c>
-      <c r="K90" s="41">
-        <v>10.887863100000001</v>
-      </c>
-      <c r="L90" s="41">
-        <v>8.8109960000000001E-2</v>
-      </c>
-      <c r="M90" s="41">
-        <v>379.82270992999997</v>
-      </c>
-      <c r="N90" s="41">
-        <v>8.5333240000000005E-2</v>
-      </c>
-      <c r="O90" s="41">
-        <v>8.4146769999999996E-2</v>
-      </c>
-      <c r="P90" s="38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C91" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59">
-        <v>300</v>
-      </c>
-      <c r="F91" s="39">
-        <v>50</v>
-      </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="58">
-        <v>44</v>
-      </c>
-      <c r="J91" s="39">
-        <v>13.1022</v>
-      </c>
-      <c r="K91" s="41">
-        <v>9.0291741699999992</v>
-      </c>
-      <c r="L91" s="41">
-        <v>7.4564649999999996E-2</v>
-      </c>
-      <c r="M91" s="41">
-        <v>286.6056074</v>
-      </c>
-      <c r="N91" s="41">
-        <v>7.7213509999999999E-2</v>
-      </c>
-      <c r="O91" s="41">
-        <v>3.5726870000000001E-2</v>
-      </c>
-      <c r="P91" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="58"/>
-      <c r="E92" s="59">
-        <v>350</v>
-      </c>
-      <c r="F92" s="39">
-        <v>50</v>
-      </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39">
-        <v>42</v>
-      </c>
-      <c r="J92" s="39">
-        <v>755.6558</v>
-      </c>
-      <c r="K92" s="41">
-        <v>12.085217139999999</v>
-      </c>
-      <c r="L92" s="41">
-        <v>9.5384200000000002E-2</v>
-      </c>
-      <c r="M92" s="41">
-        <v>397.19151485999998</v>
-      </c>
-      <c r="N92" s="41">
-        <v>0.10140046</v>
-      </c>
-      <c r="O92" s="41">
-        <v>3.4829119999999998E-2</v>
-      </c>
-      <c r="P92" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="59">
-        <v>4227</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="59">
-        <v>350</v>
+      <c r="D93" s="39"/>
+      <c r="E93" s="38">
+        <v>100</v>
       </c>
       <c r="F93" s="39">
         <v>50</v>
@@ -7153,75 +6980,72 @@
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
       <c r="I93" s="39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93" s="39">
-        <v>1989.3108999999999</v>
-      </c>
-      <c r="K93" s="41">
-        <v>23.83834577</v>
+        <v>5987.5990000000002</v>
+      </c>
+      <c r="K93" s="40">
+        <v>39.811111173</v>
       </c>
       <c r="L93" s="41">
-        <v>0.16666360999999999</v>
+        <v>0.295085285407581</v>
       </c>
       <c r="M93" s="41">
-        <v>890.57416341999999</v>
+        <v>1532.6129417120101</v>
       </c>
       <c r="N93" s="41">
-        <v>0.19501345</v>
+        <v>0.305712224216657</v>
       </c>
       <c r="O93" s="41">
-        <v>4.6165150000000002E-2</v>
-      </c>
-      <c r="P93" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="59" t="s">
+        <v>0.28655775903000102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="59">
+      <c r="B94" s="38">
         <v>4227</v>
       </c>
-      <c r="C94" s="58" t="s">
+      <c r="C94" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="59">
-        <v>350</v>
+      <c r="D94" s="39"/>
+      <c r="E94" s="38">
+        <v>100</v>
       </c>
       <c r="F94" s="39">
         <v>50</v>
       </c>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
-      <c r="I94" s="58">
-        <v>44</v>
+      <c r="I94" s="39">
+        <v>43</v>
       </c>
       <c r="J94" s="39">
-        <v>10.9015</v>
-      </c>
-      <c r="K94" s="41">
-        <v>7.6194811800000002</v>
-      </c>
-      <c r="L94" s="41">
-        <v>6.5453860000000003E-2</v>
+        <v>6010.8316999999997</v>
+      </c>
+      <c r="K94" s="40">
+        <v>56.815319080000002</v>
+      </c>
+      <c r="L94" s="40">
+        <v>0.32490976999999999</v>
       </c>
       <c r="M94" s="41">
-        <v>231.26520195000001</v>
-      </c>
-      <c r="N94" s="41">
-        <v>6.2881220000000002E-2</v>
-      </c>
-      <c r="O94" s="41">
-        <v>7.4823990000000007E-2</v>
+        <v>2221.3669726200001</v>
+      </c>
+      <c r="N94" s="40">
+        <v>0.49594254999999998</v>
+      </c>
+      <c r="O94" s="40">
+        <v>0.15688109</v>
       </c>
       <c r="P94" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="59" t="s">
         <v>17</v>
       </c>
@@ -7233,39 +7057,39 @@
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="59">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F95" s="39">
         <v>50</v>
       </c>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39">
-        <v>42</v>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58">
+        <v>44</v>
       </c>
       <c r="J95" s="39">
-        <v>699.42229999999995</v>
-      </c>
-      <c r="K95" s="41">
-        <v>7.8022089000000001</v>
-      </c>
-      <c r="L95" s="41">
-        <v>6.7061309999999999E-2</v>
+        <v>6580.2233999999999</v>
+      </c>
+      <c r="K95" s="40">
+        <v>63.977869939999998</v>
+      </c>
+      <c r="L95" s="40">
+        <v>0.36858385999999999</v>
       </c>
       <c r="M95" s="41">
-        <v>236.03649923</v>
-      </c>
-      <c r="N95" s="41">
-        <v>6.4466800000000005E-2</v>
-      </c>
-      <c r="O95" s="41">
-        <v>7.2232569999999996E-2</v>
+        <v>2501.5459309900002</v>
+      </c>
+      <c r="N95" s="40">
+        <v>0.53797130000000004</v>
+      </c>
+      <c r="O95" s="40">
+        <v>0.19995673799999999</v>
       </c>
       <c r="P95" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="59" t="s">
         <v>17</v>
       </c>
@@ -7277,7 +7101,7 @@
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="59">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F96" s="39">
         <v>50</v>
@@ -7285,31 +7109,31 @@
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
       <c r="I96" s="39">
-        <v>43</v>
-      </c>
-      <c r="J96" s="39">
-        <v>1901.029</v>
-      </c>
-      <c r="K96" s="41">
-        <v>12.5952123</v>
-      </c>
-      <c r="L96" s="41">
-        <v>0.10335569</v>
+        <v>42</v>
+      </c>
+      <c r="J96" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="K96" s="40">
+        <v>33.2168268</v>
+      </c>
+      <c r="L96" s="40">
+        <v>0.29413540999999999</v>
       </c>
       <c r="M96" s="41">
-        <v>446.37053297</v>
-      </c>
-      <c r="N96" s="41">
-        <v>0.10536046</v>
-      </c>
-      <c r="O96" s="41">
-        <v>0.14697059000000001</v>
+        <v>1245.2308292600001</v>
+      </c>
+      <c r="N96" s="40">
+        <v>0.25918701</v>
+      </c>
+      <c r="O96" s="40">
+        <v>0.41749721000000001</v>
       </c>
       <c r="P96" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="59" t="s">
         <v>17</v>
       </c>
@@ -7321,35 +7145,739 @@
       </c>
       <c r="D97" s="58"/>
       <c r="E97" s="59">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F97" s="39">
         <v>50</v>
       </c>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
-      <c r="I97" s="58">
+      <c r="I97" s="39">
+        <v>43</v>
+      </c>
+      <c r="J97" s="39">
+        <v>2886.2824999999998</v>
+      </c>
+      <c r="K97" s="41">
+        <v>29.89307805</v>
+      </c>
+      <c r="L97" s="41">
+        <v>0.23886130999999999</v>
+      </c>
+      <c r="M97" s="41">
+        <v>1137.6778158100001</v>
+      </c>
+      <c r="N97" s="41">
+        <v>0.23515806</v>
+      </c>
+      <c r="O97" s="41">
+        <v>0.27140829</v>
+      </c>
+      <c r="P97" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C98" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="58"/>
+      <c r="E98" s="59">
+        <v>150</v>
+      </c>
+      <c r="F98" s="39">
+        <v>50</v>
+      </c>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="58">
         <v>44</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J98" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K98" s="41">
+        <v>51.053143290000001</v>
+      </c>
+      <c r="L98" s="41">
+        <v>0.30559857000000001</v>
+      </c>
+      <c r="M98" s="41">
+        <v>1959.59859923</v>
+      </c>
+      <c r="N98" s="41">
+        <v>0.40463465999999998</v>
+      </c>
+      <c r="O98" s="41">
+        <v>0.12930256000000001</v>
+      </c>
+      <c r="P98" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C99" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="58"/>
+      <c r="E99" s="59">
+        <v>200</v>
+      </c>
+      <c r="F99" s="39">
+        <v>50</v>
+      </c>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39">
+        <v>42</v>
+      </c>
+      <c r="J99" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K99" s="41">
+        <v>16.054106149999999</v>
+      </c>
+      <c r="L99" s="41">
+        <v>0.12951341</v>
+      </c>
+      <c r="M99" s="41">
+        <v>552.52366905999997</v>
+      </c>
+      <c r="N99" s="41">
+        <v>0.12731044</v>
+      </c>
+      <c r="O99" s="41">
+        <v>0.12750280999999999</v>
+      </c>
+      <c r="P99" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C100" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="58"/>
+      <c r="E100" s="59">
+        <v>200</v>
+      </c>
+      <c r="F100" s="39">
+        <v>50</v>
+      </c>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39">
+        <v>43</v>
+      </c>
+      <c r="J100" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="K100" s="41">
+        <v>20.0279132</v>
+      </c>
+      <c r="L100" s="41">
+        <v>0.14278342999999999</v>
+      </c>
+      <c r="M100" s="41">
+        <v>746.12020351000001</v>
+      </c>
+      <c r="N100" s="41">
+        <v>0.17515089</v>
+      </c>
+      <c r="O100" s="41">
+        <v>7.6393329999999995E-2</v>
+      </c>
+      <c r="P100" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C101" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="58"/>
+      <c r="E101" s="59">
+        <v>200</v>
+      </c>
+      <c r="F101" s="39">
+        <v>50</v>
+      </c>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="58">
+        <v>44</v>
+      </c>
+      <c r="J101" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K101" s="41">
+        <v>16.552922259999999</v>
+      </c>
+      <c r="L101" s="41">
+        <v>0.12937567</v>
+      </c>
+      <c r="M101" s="41">
+        <v>574.24439425000003</v>
+      </c>
+      <c r="N101" s="41">
+        <v>0.13081623000000001</v>
+      </c>
+      <c r="O101" s="41">
+        <v>0.12079728000000001</v>
+      </c>
+      <c r="P101" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="58"/>
+      <c r="E102" s="59">
+        <v>250</v>
+      </c>
+      <c r="F102" s="39">
+        <v>50</v>
+      </c>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39">
+        <v>42</v>
+      </c>
+      <c r="J102" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="K102" s="41">
+        <v>11.092611120000001</v>
+      </c>
+      <c r="L102" s="41">
+        <v>9.0542910000000004E-2</v>
+      </c>
+      <c r="M102" s="41">
+        <v>363.60744175999997</v>
+      </c>
+      <c r="N102" s="41">
+        <v>9.0585730000000003E-2</v>
+      </c>
+      <c r="O102" s="41">
+        <v>5.056335E-2</v>
+      </c>
+      <c r="P102" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C103" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="58"/>
+      <c r="E103" s="59">
+        <v>250</v>
+      </c>
+      <c r="F103" s="39">
+        <v>50</v>
+      </c>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39">
+        <v>43</v>
+      </c>
+      <c r="J103" s="39">
+        <v>2127.03206</v>
+      </c>
+      <c r="K103" s="41">
+        <v>11.095081589999999</v>
+      </c>
+      <c r="L103" s="41">
+        <v>9.0895249999999997E-2</v>
+      </c>
+      <c r="M103" s="41">
+        <v>389.24279887</v>
+      </c>
+      <c r="N103" s="41">
+        <v>9.2491989999999996E-2</v>
+      </c>
+      <c r="O103" s="41">
+        <v>0.12978544</v>
+      </c>
+      <c r="P103" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C104" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="58"/>
+      <c r="E104" s="59">
+        <v>250</v>
+      </c>
+      <c r="F104" s="39">
+        <v>50</v>
+      </c>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="58">
+        <v>44</v>
+      </c>
+      <c r="J104" s="39">
+        <v>17.9893</v>
+      </c>
+      <c r="K104" s="41">
+        <v>8.5080010099999992</v>
+      </c>
+      <c r="L104" s="41">
+        <v>7.1243500000000001E-2</v>
+      </c>
+      <c r="M104" s="41">
+        <v>263.82989985</v>
+      </c>
+      <c r="N104" s="41">
+        <v>7.0827890000000004E-2</v>
+      </c>
+      <c r="O104" s="41">
+        <v>4.4766830000000001E-2</v>
+      </c>
+      <c r="P104" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C105" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="58"/>
+      <c r="E105" s="59">
+        <v>300</v>
+      </c>
+      <c r="F105" s="39">
+        <v>50</v>
+      </c>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39">
+        <v>42</v>
+      </c>
+      <c r="J105" s="39">
+        <v>761.44443999999999</v>
+      </c>
+      <c r="K105" s="41">
+        <v>10.86580343</v>
+      </c>
+      <c r="L105" s="41">
+        <v>8.8302350000000002E-2</v>
+      </c>
+      <c r="M105" s="41">
+        <v>351.00028567999999</v>
+      </c>
+      <c r="N105" s="41">
+        <v>9.2872479999999993E-2</v>
+      </c>
+      <c r="O105" s="41">
+        <v>3.4290349999999997E-2</v>
+      </c>
+      <c r="P105" s="38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C106" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="58"/>
+      <c r="E106" s="59">
+        <v>300</v>
+      </c>
+      <c r="F106" s="39">
+        <v>50</v>
+      </c>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39">
+        <v>43</v>
+      </c>
+      <c r="J106" s="39">
+        <v>2032.7434000000001</v>
+      </c>
+      <c r="K106" s="41">
+        <v>10.887863100000001</v>
+      </c>
+      <c r="L106" s="41">
+        <v>8.8109960000000001E-2</v>
+      </c>
+      <c r="M106" s="41">
+        <v>379.82270992999997</v>
+      </c>
+      <c r="N106" s="41">
+        <v>8.5333240000000005E-2</v>
+      </c>
+      <c r="O106" s="41">
+        <v>8.4146769999999996E-2</v>
+      </c>
+      <c r="P106" s="38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59">
+        <v>300</v>
+      </c>
+      <c r="F107" s="39">
+        <v>50</v>
+      </c>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="58">
+        <v>44</v>
+      </c>
+      <c r="J107" s="39">
+        <v>13.1022</v>
+      </c>
+      <c r="K107" s="41">
+        <v>9.0291741699999992</v>
+      </c>
+      <c r="L107" s="41">
+        <v>7.4564649999999996E-2</v>
+      </c>
+      <c r="M107" s="41">
+        <v>286.6056074</v>
+      </c>
+      <c r="N107" s="41">
+        <v>7.7213509999999999E-2</v>
+      </c>
+      <c r="O107" s="41">
+        <v>3.5726870000000001E-2</v>
+      </c>
+      <c r="P107" s="38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C108" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="58"/>
+      <c r="E108" s="59">
+        <v>350</v>
+      </c>
+      <c r="F108" s="39">
+        <v>50</v>
+      </c>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39">
+        <v>42</v>
+      </c>
+      <c r="J108" s="39">
+        <v>755.6558</v>
+      </c>
+      <c r="K108" s="41">
+        <v>12.085217139999999</v>
+      </c>
+      <c r="L108" s="41">
+        <v>9.5384200000000002E-2</v>
+      </c>
+      <c r="M108" s="41">
+        <v>397.19151485999998</v>
+      </c>
+      <c r="N108" s="41">
+        <v>0.10140046</v>
+      </c>
+      <c r="O108" s="41">
+        <v>3.4829119999999998E-2</v>
+      </c>
+      <c r="P108" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C109" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="58"/>
+      <c r="E109" s="59">
+        <v>350</v>
+      </c>
+      <c r="F109" s="39">
+        <v>50</v>
+      </c>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39">
+        <v>43</v>
+      </c>
+      <c r="J109" s="39">
+        <v>1989.3108999999999</v>
+      </c>
+      <c r="K109" s="41">
+        <v>23.83834577</v>
+      </c>
+      <c r="L109" s="41">
+        <v>0.16666360999999999</v>
+      </c>
+      <c r="M109" s="41">
+        <v>890.57416341999999</v>
+      </c>
+      <c r="N109" s="41">
+        <v>0.19501345</v>
+      </c>
+      <c r="O109" s="41">
+        <v>4.6165150000000002E-2</v>
+      </c>
+      <c r="P109" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C110" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="58"/>
+      <c r="E110" s="59">
+        <v>350</v>
+      </c>
+      <c r="F110" s="39">
+        <v>50</v>
+      </c>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="58">
+        <v>44</v>
+      </c>
+      <c r="J110" s="39">
+        <v>10.9015</v>
+      </c>
+      <c r="K110" s="41">
+        <v>7.6194811800000002</v>
+      </c>
+      <c r="L110" s="41">
+        <v>6.5453860000000003E-2</v>
+      </c>
+      <c r="M110" s="41">
+        <v>231.26520195000001</v>
+      </c>
+      <c r="N110" s="41">
+        <v>6.2881220000000002E-2</v>
+      </c>
+      <c r="O110" s="41">
+        <v>7.4823990000000007E-2</v>
+      </c>
+      <c r="P110" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="58"/>
+      <c r="E111" s="59">
+        <v>400</v>
+      </c>
+      <c r="F111" s="39">
+        <v>50</v>
+      </c>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39">
+        <v>42</v>
+      </c>
+      <c r="J111" s="39">
+        <v>699.42229999999995</v>
+      </c>
+      <c r="K111" s="41">
+        <v>7.8022089000000001</v>
+      </c>
+      <c r="L111" s="41">
+        <v>6.7061309999999999E-2</v>
+      </c>
+      <c r="M111" s="41">
+        <v>236.03649923</v>
+      </c>
+      <c r="N111" s="41">
+        <v>6.4466800000000005E-2</v>
+      </c>
+      <c r="O111" s="41">
+        <v>7.2232569999999996E-2</v>
+      </c>
+      <c r="P111" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="58"/>
+      <c r="E112" s="59">
+        <v>400</v>
+      </c>
+      <c r="F112" s="39">
+        <v>50</v>
+      </c>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39">
+        <v>43</v>
+      </c>
+      <c r="J112" s="39">
+        <v>1901.029</v>
+      </c>
+      <c r="K112" s="41">
+        <v>12.5952123</v>
+      </c>
+      <c r="L112" s="41">
+        <v>0.10335569</v>
+      </c>
+      <c r="M112" s="41">
+        <v>446.37053297</v>
+      </c>
+      <c r="N112" s="41">
+        <v>0.10536046</v>
+      </c>
+      <c r="O112" s="41">
+        <v>0.14697059000000001</v>
+      </c>
+      <c r="P112" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="59">
+        <v>4227</v>
+      </c>
+      <c r="C113" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59">
+        <v>400</v>
+      </c>
+      <c r="F113" s="39">
+        <v>50</v>
+      </c>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="58">
+        <v>44</v>
+      </c>
+      <c r="J113" s="39">
         <v>9.5536999999999992</v>
       </c>
-      <c r="K97" s="41">
+      <c r="K113" s="41">
         <v>7.9462609400000002</v>
       </c>
-      <c r="L97" s="41">
+      <c r="L113" s="41">
         <v>6.7314230000000003E-2</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M113" s="41">
         <v>242.28017265</v>
       </c>
-      <c r="N97" s="41">
+      <c r="N113" s="41">
         <v>6.5463549999999995E-2</v>
       </c>
-      <c r="O97" s="41">
+      <c r="O113" s="41">
         <v>8.196705E-2</v>
       </c>
-      <c r="P97" s="38" t="s">
+      <c r="P113" s="38" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7363,9 +7891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62:O62"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11602,9 +12130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83:N83"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14642,8 +15170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/results_v3.2.xlsx
+++ b/results/results_v3.2.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A6BD1-DA9F-40E5-AD3F-385A8EC2DF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BECBCF-D221-42D6-ACDD-AF55DC6D8009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="19200" windowHeight="7860" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
     <sheet name="m4_daily" sheetId="5" r:id="rId2"/>
     <sheet name="m4_weekly" sheetId="1" r:id="rId3"/>
     <sheet name="m4_monthly" sheetId="6" r:id="rId4"/>
-    <sheet name="traffic" sheetId="7" r:id="rId5"/>
-    <sheet name="electricity" sheetId="2" r:id="rId6"/>
+    <sheet name="m4_quarterly" sheetId="8" r:id="rId5"/>
+    <sheet name="m4_yearly" sheetId="9" r:id="rId6"/>
+    <sheet name="traffic" sheetId="7" r:id="rId7"/>
+    <sheet name="electricity" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="226">
   <si>
     <t>Algorithm</t>
   </si>
@@ -654,14 +656,69 @@
   </si>
   <si>
     <t>not really</t>
+  </si>
+  <si>
+    <t>m4_quarterly</t>
+  </si>
+  <si>
+    <t>DeepAREstimator</t>
+  </si>
+  <si>
+    <t>m4_yearly</t>
+  </si>
+  <si>
+    <t>wQL.5</t>
+  </si>
+  <si>
+    <t>wQL.9</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epochs </t>
+  </si>
+  <si>
+    <t>num_batches</t>
+  </si>
+  <si>
+    <t>use_feat</t>
+  </si>
+  <si>
+    <t>Smyl</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Legaki</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>ETS</t>
+  </si>
+  <si>
+    <t>Comb</t>
+  </si>
+  <si>
+    <t>OWA Rank</t>
+  </si>
+  <si>
+    <t>Naive2</t>
+  </si>
+  <si>
+    <t>theta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -744,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -880,6 +937,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6826,7 +6886,7 @@
       <c r="O88" s="37"/>
       <c r="P88" s="35"/>
     </row>
-    <row r="89" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>17</v>
       </c>
@@ -6866,7 +6926,7 @@
       </c>
       <c r="P89" s="7"/>
     </row>
-    <row r="90" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>17</v>
       </c>
@@ -6904,7 +6964,7 @@
       <c r="O90" s="21"/>
       <c r="P90" s="7"/>
     </row>
-    <row r="91" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
         <v>17</v>
       </c>
@@ -12132,7 +12192,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15167,10 +15227,557 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="69">
+        <v>2</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="69">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F2" s="69">
+        <v>9.6790000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="69">
+        <v>1.111</v>
+      </c>
+      <c r="F3" s="69">
+        <v>9.733E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="69">
+        <v>18</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="69">
+        <v>1.198</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0.10155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69">
+        <v>19</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="69">
+        <v>1.165</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.10431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69">
+        <v>15</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="69">
+        <v>1.161</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0.10291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="69">
+        <v>13</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="69">
+        <v>1.173</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0.10174999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69">
+        <v>21</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="69">
+        <v>1.232</v>
+      </c>
+      <c r="F8" s="69">
+        <v>0.10310999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="69">
+        <v>25</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="69">
+        <v>1.371</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0.11012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="69">
+        <v>0</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="71">
+        <v>1.326425</v>
+      </c>
+      <c r="F10" s="71">
+        <v>0.108775</v>
+      </c>
+      <c r="G10" s="71">
+        <v>16.517986000000001</v>
+      </c>
+      <c r="H10" s="71">
+        <v>0.101759</v>
+      </c>
+      <c r="I10" s="71">
+        <v>6.1157999999999997E-2</v>
+      </c>
+      <c r="J10" s="69">
+        <v>42</v>
+      </c>
+      <c r="K10" s="69">
+        <v>100</v>
+      </c>
+      <c r="L10" s="69">
+        <v>50</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D11" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="70">
+        <v>1.186151</v>
+      </c>
+      <c r="F11" s="70">
+        <v>0.101258</v>
+      </c>
+      <c r="G11" s="13">
+        <v>12.653755</v>
+      </c>
+      <c r="H11" s="13">
+        <v>9.4033000000000005E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5.1957000000000003E-2</v>
+      </c>
+      <c r="J11">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="69">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="69">
+        <v>2.98</v>
+      </c>
+      <c r="F2" s="69">
+        <v>0.13175999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69">
+        <v>3</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="69">
+        <v>3.06</v>
+      </c>
+      <c r="F3" s="69">
+        <v>0.13528000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="69">
+        <v>2</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="69">
+        <v>3.0089999999999999</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0.13366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69">
+        <v>17</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="69">
+        <v>3.3820000000000001</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.14593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69">
+        <v>16</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="69">
+        <v>3.28</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0.14848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="69">
+        <v>21</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="69">
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0.15168000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69">
+        <v>22</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="69">
+        <v>3.444</v>
+      </c>
+      <c r="F8" s="69">
+        <v>0.15356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="69">
+        <v>24</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="69">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0.16353999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="69">
+        <v>3.8250959999999998</v>
+      </c>
+      <c r="F11" s="69">
+        <v>0.152422</v>
+      </c>
+      <c r="G11" s="69">
+        <v>72.542062000000001</v>
+      </c>
+      <c r="H11" s="69">
+        <v>0.14613100000000001</v>
+      </c>
+      <c r="I11" s="69">
+        <v>0.117115</v>
+      </c>
+      <c r="J11" s="69">
+        <v>42</v>
+      </c>
+      <c r="K11" s="69">
+        <v>100</v>
+      </c>
+      <c r="L11" s="69">
+        <v>50</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D12" s="69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -15813,7 +16420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
